--- a/산출물/요구사항 명세서/MiniPX_요구사항_명세서_V0.1.xlsx
+++ b/산출물/요구사항 명세서/MiniPX_요구사항_명세서_V0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\OneDrive\바탕 화면\MPX\산출물\요구사항 명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4420F36-C1C1-4AA4-BA67-B57999FECE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6843FA-6D87-4CF5-81F3-7B65D7568B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="254">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,26 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰 번호 혹은 메일 주소로 발송된 인증번호 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 인증을 통해 아이디를 찾는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 인증을 통해 비밀번호를 초기화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,18 +785,6 @@
   </si>
   <si>
     <t>이메일로 인증번호를 발송하여 사용자가 인증할 수 있도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대전화 인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대전화로 인증번호를 발송하여 사용자가 인증할 수 있도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버, 카카오톡 등의 계정을 이용해 회원가입 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1028,14 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디 찾기(팝업)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 찾기(팝업)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>- 인증된 메일(@dgbfn.com)인 경우 인증번호로 승인
 - 비인증 메일인 경우 인증번호 및 관리자 인증 진행</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,39 +1169,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>로그인 정보 저장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>라우팅 가드 추가</t>
-    </r>
+    <t>Spring-Security 사용
+Bcrypt로 비밀번호 암호화
+Refresh Token, Access Token을 사용해 인증 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,7 +1179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,7 +1349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1493,83 +1419,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1928,16 +1851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I100"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" style="18" bestFit="1" customWidth="1"/>
@@ -1951,212 +1874,212 @@
     <col min="10" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="41" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="1" customFormat="1">
+    <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="F6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="34.799999999999997">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="23"/>
-      <c r="C7" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>13</v>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="42"/>
+      <c r="C7" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="42"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B10" s="42"/>
+      <c r="C10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="34.799999999999997">
-      <c r="B8" s="23"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="23"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="104.4">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>91</v>
+      <c r="H10" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="42"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="34.799999999999997">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="42"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>9</v>
@@ -2165,36 +2088,36 @@
         <v>9</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="42"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="42"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>9</v>
@@ -2203,563 +2126,563 @@
         <v>9</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="42"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="16"/>
       <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B16" s="42"/>
+      <c r="C16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B17" s="42"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="42"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="15" t="s">
+      <c r="F18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" ht="87">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="33" t="s">
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="42"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="34.799999999999997">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" ht="34.799999999999997">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="42"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B21" s="42"/>
+      <c r="C21" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" ht="34.799999999999997">
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
+      <c r="F21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="34.799999999999997">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="34.799999999999997">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="D27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="34.799999999999997">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="34.799999999999997">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" ht="139.19999999999999">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="F29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B33" s="42"/>
+      <c r="C33" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B39" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="69.599999999999994">
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="34.799999999999997">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="69.599999999999994">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="69.599999999999994">
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="69.599999999999994">
-      <c r="B39" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="F39" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>146</v>
+      <c r="H39" s="46" t="s">
+        <v>145</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="34.799999999999997">
-      <c r="B40" s="46"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="24"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B40" s="41"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="46"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="24"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="41"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>149</v>
-      </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="46"/>
-      <c r="C42" s="36"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="41"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="13" t="s">
@@ -2769,15 +2692,15 @@
         <v>9</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="2:9" ht="34.799999999999997">
-      <c r="B43" s="46"/>
-      <c r="C43" s="37"/>
+    <row r="43" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B43" s="41"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="13" t="s">
@@ -2787,263 +2710,263 @@
         <v>9</v>
       </c>
       <c r="H43" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="41"/>
+      <c r="C44" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="41"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B46" s="41"/>
+      <c r="C46" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B47" s="41"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="41"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="41"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" s="22" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B50" s="41"/>
+      <c r="C50" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="41"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="41"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="2:9" s="22" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" s="22" customFormat="1">
-      <c r="B44" s="46"/>
-      <c r="C44" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="31" t="s">
+      <c r="I53" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B54" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" s="22" customFormat="1">
-      <c r="B45" s="46"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" ht="52.2">
-      <c r="B46" s="46"/>
-      <c r="C46" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="46"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="46"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="8" t="s">
+      <c r="D54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="46"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" s="22" customFormat="1" ht="69.599999999999994">
-      <c r="B50" s="46"/>
-      <c r="C50" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" s="22" customFormat="1">
-      <c r="B51" s="46"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" s="22" customFormat="1">
-      <c r="B52" s="46"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="2:9" s="22" customFormat="1" ht="34.799999999999997">
-      <c r="B53" s="32"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="34.799999999999997">
-      <c r="B54" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="2:9" ht="34.799999999999997">
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+    <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="13" t="s">
@@ -3053,15 +2976,15 @@
         <v>9</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24" t="s">
-        <v>29</v>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -3071,16 +2994,16 @@
         <v>9</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="29"/>
       <c r="E58" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>8</v>
@@ -3089,55 +3012,55 @@
         <v>9</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="24" t="s">
-        <v>15</v>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="3" t="s">
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="23"/>
-      <c r="C61" s="31" t="s">
-        <v>228</v>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="42"/>
+      <c r="C61" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="13" t="s">
@@ -3149,11 +3072,11 @@
       <c r="H61" s="5"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="23"/>
-      <c r="C62" s="32"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="42"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="13" t="s">
@@ -3165,458 +3088,458 @@
       <c r="H62" s="5"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="2:9" ht="34.799999999999997">
-      <c r="B63" s="23" t="s">
+    <row r="63" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B63" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="47" t="s">
+      <c r="E63" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="42"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="42"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I63" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="23"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I64" s="48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="23"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="F65" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="23"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="13" t="s">
-        <v>223</v>
-      </c>
+      <c r="H65" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B66" s="42"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>166</v>
+      <c r="H66" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="23"/>
-      <c r="C67" s="25"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="42"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="13"/>
       <c r="E67" s="3" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="2:9" ht="52.2">
-      <c r="B68" s="23"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="13"/>
+    <row r="68" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B68" s="42"/>
+      <c r="C68" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="E68" s="3" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="23"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="13"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B69" s="42"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="3" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>225</v>
+        <v>8</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="2:9" ht="52.2">
-      <c r="B70" s="23"/>
-      <c r="C70" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>4</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B70" s="42"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="69.599999999999994">
-      <c r="B71" s="23"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="10" t="s">
+      <c r="I71" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="42"/>
+      <c r="C72" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="I71" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="34.799999999999997">
-      <c r="B72" s="23"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="3" t="s">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B73" s="42"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B74" s="42"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B75" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="8" t="s">
+      <c r="F75" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I72" s="20" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="23"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="3" t="s">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="42"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="H73" s="8" t="s">
+      <c r="F76" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="2:9" ht="69.599999999999994">
-      <c r="B74" s="23"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H75" s="10" t="s">
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B77" s="42"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="23"/>
-      <c r="C76" s="25" t="s">
+      <c r="F77" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="H77" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="42"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="2:9" ht="87">
-      <c r="B77" s="23"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="3" t="s">
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="42"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F77" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="10" t="s">
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B80" s="42"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I77" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="52.2">
-      <c r="B78" s="23"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="I80" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F79" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="23"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="3" t="s">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="42"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="8" t="s">
+      <c r="F81" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="2:9" ht="69.599999999999994">
-      <c r="B81" s="23"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>227</v>
-      </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="23"/>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B82" s="42"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F82" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="10" t="s">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B83" s="42"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="23"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="23" t="s">
-        <v>41</v>
-      </c>
       <c r="E83" s="3" t="s">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="23"/>
+    </row>
+    <row r="84" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B84" s="42" t="s">
+        <v>16</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="23"/>
+      <c r="D84" s="13"/>
       <c r="E84" s="3" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B85" s="42"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="23"/>
+      <c r="D85" s="13"/>
       <c r="E85" s="3" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>8</v>
@@ -3625,315 +3548,251 @@
         <v>8</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="23"/>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B86" s="42"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D86" s="13"/>
       <c r="E86" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="2:9" ht="34.799999999999997">
-      <c r="B87" s="23"/>
+      <c r="H86" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B87" s="42"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
-        <v>198</v>
-      </c>
+      <c r="D87" s="13"/>
       <c r="E87" s="3" t="s">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="34.799999999999997">
-      <c r="B88" s="23" t="s">
-        <v>17</v>
-      </c>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B88" s="42"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>205</v>
+        <v>11</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="23"/>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B89" s="42"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="23"/>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B90" s="42"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="3" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="23"/>
+        <v>201</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B92" s="42"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>207</v>
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="23"/>
+    <row r="93" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="23"/>
+      <c r="I93" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B94" s="42" t="s">
+        <v>19</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="3" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="H94" s="10"/>
+      <c r="I94" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B95" s="42"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="23"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B96" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="E96" s="3" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="2:9" ht="87">
-      <c r="B97" s="23"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="23"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="10"/>
-      <c r="I99" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I100" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B39:B53"/>
     <mergeCell ref="C50:C53"/>
@@ -3943,15 +3802,6 @@
     <mergeCell ref="C21:C26"/>
     <mergeCell ref="C16:C20"/>
     <mergeCell ref="B4:B38"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B88:B97"/>
-    <mergeCell ref="C54:C60"/>
-    <mergeCell ref="B54:B62"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="B63:B78"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H33:H34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="C4:C6"/>
@@ -3959,33 +3809,26 @@
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F9 G36:G49">
+  <conditionalFormatting sqref="F7:F9 G36:G49 G54:G68 G72:G77">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G29 G30:G33 G54:G70 G75:G81 G83:G1048576">
+  <conditionalFormatting sqref="F27:G29 G30:G33 G79:G1048576">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"상"</formula>
     </cfRule>

--- a/산출물/요구사항 명세서/MiniPX_요구사항_명세서_V0.1.xlsx
+++ b/산출물/요구사항 명세서/MiniPX_요구사항_명세서_V0.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6843FA-6D87-4CF5-81F3-7B65D7568B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742FF25-4D87-45C2-8BAC-D58DF39B463B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
   <si>
     <t>상세내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>중요도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -405,14 +401,6 @@
   </si>
   <si>
     <t>아이디, 비밀번호를 통해 사용자 인증을 진행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 시간 동작이 없을 경우 자동으로 로그아웃 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,10 +729,6 @@
   </si>
   <si>
     <t>공지사항 팝업의 [오늘 하루 표시 안 함] 버튼을 누르면 하루 동안 해당 팝업이 발생하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네이버, 카카오톡 등의 계정을 이용해 로그인 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -994,10 +978,6 @@
   <si>
     <t>- 인증된 메일(@dgbfn.com)인 경우 인증번호로 승인
 - 비인증 메일인 경우 인증번호 및 관리자 인증 진행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1349,7 +1329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1491,7 +1471,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1851,13 +1837,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31696135-F6CB-454A-84E5-067036ED42D4}">
-  <dimension ref="B2:I96"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1876,7 +1862,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -1896,16 +1882,16 @@
     </row>
     <row r="3" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="38"/>
@@ -1914,25 +1900,25 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>56</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -1941,16 +1927,16 @@
       <c r="C5" s="42"/>
       <c r="D5" s="29"/>
       <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -1959,38 +1945,38 @@
       <c r="C6" s="42"/>
       <c r="D6" s="29"/>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="42"/>
       <c r="C7" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1999,19 +1985,19 @@
       <c r="C8" s="41"/>
       <c r="D8" s="31"/>
       <c r="E8" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
@@ -2019,41 +2005,41 @@
       <c r="C9" s="27"/>
       <c r="D9" s="32"/>
       <c r="E9" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
       <c r="B10" s="42"/>
       <c r="C10" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2061,17 +2047,17 @@
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
@@ -2079,16 +2065,16 @@
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I12" s="9"/>
     </row>
@@ -2097,19 +2083,19 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
@@ -2117,19 +2103,19 @@
       <c r="C14" s="29"/>
       <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -2137,41 +2123,41 @@
       <c r="C15" s="29"/>
       <c r="D15" s="16"/>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="87" x14ac:dyDescent="0.4">
       <c r="B16" s="42"/>
       <c r="C16" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2179,17 +2165,17 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
@@ -2197,16 +2183,16 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I18" s="9"/>
     </row>
@@ -2214,19 +2200,19 @@
       <c r="B19" s="42"/>
       <c r="C19" s="29"/>
       <c r="D19" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -2235,41 +2221,41 @@
       <c r="C20" s="29"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B21" s="42"/>
       <c r="C21" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2277,19 +2263,19 @@
       <c r="C22" s="42"/>
       <c r="D22" s="29"/>
       <c r="E22" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2297,19 +2283,19 @@
       <c r="C23" s="42"/>
       <c r="D23" s="29"/>
       <c r="E23" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
@@ -2317,38 +2303,38 @@
       <c r="C24" s="42"/>
       <c r="D24" s="29"/>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I25" s="8"/>
     </row>
@@ -2356,44 +2342,44 @@
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="B27" s="42"/>
       <c r="C27" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.4">
@@ -2401,16 +2387,16 @@
       <c r="C28" s="42"/>
       <c r="D28" s="29"/>
       <c r="E28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="I28" s="4"/>
     </row>
@@ -2419,38 +2405,38 @@
       <c r="C29" s="42"/>
       <c r="D29" s="29"/>
       <c r="E29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="42"/>
       <c r="C30" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I30" s="4"/>
     </row>
@@ -2459,16 +2445,16 @@
       <c r="C31" s="42"/>
       <c r="D31" s="29"/>
       <c r="E31" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I31" s="4"/>
     </row>
@@ -2477,41 +2463,41 @@
       <c r="C32" s="42"/>
       <c r="D32" s="29"/>
       <c r="E32" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2519,39 +2505,39 @@
       <c r="C34" s="42"/>
       <c r="D34" s="29"/>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
       <c r="D35" s="45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2559,19 +2545,19 @@
       <c r="C36" s="42"/>
       <c r="D36" s="29"/>
       <c r="E36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="I36" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.4">
@@ -2579,67 +2565,67 @@
       <c r="C37" s="42"/>
       <c r="D37" s="29"/>
       <c r="E37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="I37" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
       <c r="D38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B39" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2647,17 +2633,17 @@
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40" s="46"/>
       <c r="I40" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.4">
@@ -2665,16 +2651,16 @@
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I41" s="8"/>
     </row>
@@ -2682,17 +2668,17 @@
       <c r="B42" s="41"/>
       <c r="C42" s="28"/>
       <c r="D42" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I42" s="4"/>
     </row>
@@ -2700,41 +2686,41 @@
       <c r="B43" s="41"/>
       <c r="C43" s="25"/>
       <c r="D43" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" s="41"/>
       <c r="C44" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="I44" s="4"/>
     </row>
@@ -2743,41 +2729,41 @@
       <c r="C45" s="25"/>
       <c r="D45" s="27"/>
       <c r="E45" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B46" s="41"/>
       <c r="C46" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>226</v>
-      </c>
       <c r="I46" s="20" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.4">
@@ -2785,13 +2771,13 @@
       <c r="C47" s="28"/>
       <c r="D47" s="31"/>
       <c r="E47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="4"/>
@@ -2801,16 +2787,16 @@
       <c r="C48" s="28"/>
       <c r="D48" s="31"/>
       <c r="E48" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I48" s="4"/>
     </row>
@@ -2819,62 +2805,62 @@
       <c r="C49" s="25"/>
       <c r="D49" s="32"/>
       <c r="E49" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="2:9" s="22" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B50" s="41"/>
       <c r="C50" s="24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" s="41"/>
       <c r="C51" s="28"/>
       <c r="D51" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I51" s="4"/>
     </row>
@@ -2882,19 +2868,19 @@
       <c r="B52" s="41"/>
       <c r="C52" s="28"/>
       <c r="D52" s="26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I52" s="4"/>
     </row>
@@ -2903,45 +2889,45 @@
       <c r="C53" s="25"/>
       <c r="D53" s="27"/>
       <c r="E53" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B54" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.4">
@@ -2949,16 +2935,16 @@
       <c r="C55" s="42"/>
       <c r="D55" s="29"/>
       <c r="E55" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I55" s="4"/>
     </row>
@@ -2966,17 +2952,17 @@
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
       <c r="D56" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I56" s="4"/>
     </row>
@@ -2984,17 +2970,17 @@
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
       <c r="D57" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I57" s="4"/>
     </row>
@@ -3003,16 +2989,16 @@
       <c r="C58" s="42"/>
       <c r="D58" s="29"/>
       <c r="E58" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I58" s="4"/>
     </row>
@@ -3020,19 +3006,19 @@
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
       <c r="D59" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I59" s="4"/>
     </row>
@@ -3041,33 +3027,33 @@
       <c r="C60" s="42"/>
       <c r="D60" s="29"/>
       <c r="E60" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="42"/>
       <c r="C61" s="26" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="4"/>
@@ -3076,14 +3062,14 @@
       <c r="B62" s="42"/>
       <c r="C62" s="27"/>
       <c r="D62" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="4"/>
@@ -3102,511 +3088,511 @@
         <v>3</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="42"/>
       <c r="C64" s="43"/>
-      <c r="D64" s="42"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B65" s="42"/>
       <c r="C65" s="43"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="49"/>
       <c r="E65" s="3" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I65" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="66" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B66" s="42"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="13"/>
+      <c r="C66" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>4</v>
+      </c>
       <c r="E66" s="3" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B67" s="42"/>
       <c r="C67" s="43"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="3" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>214</v>
+        <v>7</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="I67" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B68" s="42"/>
-      <c r="C68" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>215</v>
+        <v>7</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B69" s="42"/>
       <c r="C69" s="43"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="3" t="s">
+      <c r="D69" s="32"/>
+      <c r="E69" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="I69" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="42"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="31"/>
+      <c r="C70" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>9</v>
+      </c>
       <c r="E70" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="2:9" ht="87" x14ac:dyDescent="0.4">
       <c r="B71" s="42"/>
       <c r="C71" s="43"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="11" t="s">
-        <v>166</v>
+      <c r="D71" s="42"/>
+      <c r="E71" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B72" s="42"/>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="43"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="H73" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="2:9" ht="87" x14ac:dyDescent="0.4">
-      <c r="B73" s="42"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B74" s="42"/>
-      <c r="C74" s="43"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="42"/>
       <c r="E74" s="3" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B75" s="42" t="s">
-        <v>36</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B75" s="42"/>
       <c r="C75" s="13"/>
-      <c r="D75" s="42" t="s">
-        <v>37</v>
-      </c>
+      <c r="D75" s="42"/>
       <c r="E75" s="3" t="s">
         <v>174</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>175</v>
+        <v>10</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B76" s="42"/>
       <c r="C76" s="13"/>
-      <c r="D76" s="42"/>
+      <c r="D76" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F76" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B77" s="42"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="42"/>
+      <c r="D77" s="42" t="s">
+        <v>39</v>
+      </c>
       <c r="E77" s="3" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B78" s="42"/>
       <c r="C78" s="13"/>
-      <c r="D78" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="D78" s="42"/>
       <c r="E78" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B79" s="42"/>
       <c r="C79" s="13"/>
-      <c r="D79" s="42" t="s">
-        <v>40</v>
-      </c>
+      <c r="D79" s="42"/>
       <c r="E79" s="3" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B80" s="42"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="42"/>
+      <c r="D80" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="E80" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B81" s="42"/>
       <c r="C81" s="13"/>
-      <c r="D81" s="42"/>
+      <c r="D81" s="13" t="s">
+        <v>185</v>
+      </c>
       <c r="E81" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B82" s="42"/>
+    </row>
+    <row r="82" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B82" s="42" t="s">
+        <v>15</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="3" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>188</v>
+        <v>10</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="42"/>
       <c r="C83" s="13"/>
-      <c r="D83" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="D83" s="13"/>
       <c r="E83" s="3" t="s">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B84" s="42" t="s">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B84" s="42"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="3" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I84" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="42"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I85" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B86" s="42"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="3" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="42"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>206</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" s="42"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I88" s="4"/>
     </row>
@@ -3618,13 +3604,13 @@
         <v>29</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I89" s="4"/>
     </row>
@@ -3633,147 +3619,111 @@
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:9" ht="87" x14ac:dyDescent="0.4">
       <c r="B91" s="42"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I91" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B92" s="42"/>
+      <c r="B92" s="42" t="s">
+        <v>18</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="42"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>208</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H93" s="10"/>
       <c r="I93" s="4" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B94" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="E94" s="3" t="s">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="10"/>
-      <c r="I94" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B95" s="42"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="10"/>
-      <c r="I95" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B96" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I96" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I94" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B73:B81"/>
     <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D63:D65"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="D39:D41"/>
@@ -3785,13 +3735,13 @@
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B84:B93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B82:B91"/>
     <mergeCell ref="C54:C60"/>
     <mergeCell ref="B54:B62"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B63:B74"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B63:B72"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B39:B53"/>
@@ -3823,12 +3773,12 @@
     <mergeCell ref="D46:D49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F9 G36:G49 G54:G68 G72:G77">
+  <conditionalFormatting sqref="F7:F9 G36:G49 G70:G75 G54:G66">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"상"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G29 G30:G33 G79:G1048576">
+  <conditionalFormatting sqref="F27:G29 G30:G33 G77:G1048576">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"상"</formula>
     </cfRule>
